--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1281265.087847968</v>
+        <v>1276781.885326507</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30187757.38812197</v>
+        <v>30187757.38812196</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7276951.394760772</v>
+        <v>7276951.394760766</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4270070.686063944</v>
+        <v>4270070.686063945</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>109.3859718680692</v>
       </c>
       <c r="G11" t="n">
         <v>398.3019706430941</v>
@@ -1423,7 +1423,7 @@
         <v>57.89215638146403</v>
       </c>
       <c r="T11" t="n">
-        <v>86.22490114025078</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H12" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T12" t="n">
         <v>136.1614894255189</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1545,10 +1545,10 @@
         <v>163.7000943114157</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I13" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S13" t="n">
         <v>152.8483877177524</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>28.3585221625994</v>
       </c>
       <c r="U13" t="n">
         <v>277.3338237039372</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7296318135674</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.5952125356917</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>125.8028498382143</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1703,7 +1703,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H15" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T15" t="n">
         <v>136.1614894255189</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,7 +1776,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>134.4071151528002</v>
       </c>
       <c r="I16" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>152.8483877177524</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U16" t="n">
         <v>277.3338237039372</v>
       </c>
       <c r="V16" t="n">
-        <v>120.1819452300704</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>204.7397368005934</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1852,16 +1852,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>335.0876155207894</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>170.6646760360674</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H18" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T18" t="n">
         <v>136.1614894255189</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>164.8612467319276</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>68.61002577444279</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H19" t="n">
         <v>134.4071151528002</v>
       </c>
       <c r="I19" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>373.6422943403762</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.510907859438348</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>23.81777682572554</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.0848299533737</v>
@@ -2298,16 +2298,16 @@
         <v>277.3338237039372</v>
       </c>
       <c r="V22" t="n">
-        <v>244.097459333672</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>129.949991592059</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.80064211040266</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>32.73927601786114</v>
+        <v>70.41161191961861</v>
       </c>
       <c r="H25" t="n">
         <v>134.4071151528002</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.356991008623019</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S25" t="n">
         <v>152.8483877177524</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>95.86421902524114</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>398.3019706430941</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>100.9458159922393</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.96274566909088</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.7000943114157</v>
@@ -2733,7 +2733,7 @@
         <v>134.4071151528002</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T28" t="n">
         <v>237.0848299533737</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>59.10385199140397</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>353.1032237479342</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>209.9888884907911</v>
       </c>
       <c r="U29" t="n">
-        <v>223.6287957801813</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H31" t="n">
-        <v>121.4339847575411</v>
+        <v>30.37052000418381</v>
       </c>
       <c r="I31" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>84.60177203504546</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>160.9959300028146</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>23.81777682572655</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U34" t="n">
-        <v>41.94961622982589</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>43.25587111820884</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>46.08885655740279</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>43.32478692791143</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.356991008623019</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S37" t="n">
         <v>152.8483877177524</v>
@@ -3483,13 +3483,13 @@
         <v>277.3338237039372</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>219.6762588228243</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>106.897985214167</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>2.887134334686991</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3019706430941</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>79.85652129976182</v>
       </c>
       <c r="F40" t="n">
-        <v>16.66069290992923</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>6.356991008623012</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>327.1012362383515</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>114.4675688350694</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>86.13452203655939</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>23.81777682572596</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>101.2538249831539</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.4717029063549</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>228.9150075652623</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>34.75555458253572</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8483877177524</v>
@@ -4191,16 +4191,16 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3338237039372</v>
+        <v>231.2631937461725</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2000.492525080222</v>
+        <v>1682.251114772739</v>
       </c>
       <c r="C11" t="n">
-        <v>1573.591795093522</v>
+        <v>1682.251114772739</v>
       </c>
       <c r="D11" t="n">
-        <v>1573.591795093522</v>
+        <v>1258.958493957739</v>
       </c>
       <c r="E11" t="n">
-        <v>1147.614855241379</v>
+        <v>832.981554105597</v>
       </c>
       <c r="F11" t="n">
         <v>722.4906734307796</v>
@@ -5038,16 +5038,16 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I11" t="n">
-        <v>84.81242438636536</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J11" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870262</v>
       </c>
       <c r="K11" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956531</v>
       </c>
       <c r="L11" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M11" t="n">
         <v>1021.935294493278</v>
@@ -5071,22 +5071,22 @@
         <v>2087.588384817849</v>
       </c>
       <c r="T11" t="n">
-        <v>2000.492525080222</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U11" t="n">
-        <v>2000.492525080222</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V11" t="n">
-        <v>2000.492525080222</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W11" t="n">
-        <v>2000.492525080222</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X11" t="n">
-        <v>2000.492525080222</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="Y11" t="n">
-        <v>2000.492525080222</v>
+        <v>1682.251114772739</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I12" t="n">
-        <v>86.72780340069545</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J12" t="n">
-        <v>166.0970193140479</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K12" t="n">
-        <v>314.4518100704812</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L12" t="n">
-        <v>649.1461985093692</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M12" t="n">
-        <v>893.8611219611482</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N12" t="n">
-        <v>1147.394326063524</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O12" t="n">
-        <v>1375.716959365517</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P12" t="n">
-        <v>1555.824378604757</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.10954923374</v>
+        <v>1773.565049518645</v>
       </c>
       <c r="R12" t="n">
         <v>1815.69702447452</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.2369511198118</v>
+        <v>1017.399015674211</v>
       </c>
       <c r="C13" t="n">
-        <v>782.2643879987278</v>
+        <v>845.4264525531271</v>
       </c>
       <c r="D13" t="n">
-        <v>618.9476151254985</v>
+        <v>682.1096796798978</v>
       </c>
       <c r="E13" t="n">
-        <v>452.739409278352</v>
+        <v>515.9014738327513</v>
       </c>
       <c r="F13" t="n">
-        <v>280.8776350529124</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G13" t="n">
-        <v>115.5240044353207</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H13" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I13" t="n">
         <v>42.92130620911383</v>
@@ -5202,16 +5202,16 @@
         <v>85.08605645578089</v>
       </c>
       <c r="K13" t="n">
-        <v>167.1940898504028</v>
+        <v>414.4766989644248</v>
       </c>
       <c r="L13" t="n">
-        <v>437.2671459556864</v>
+        <v>814.9694702588897</v>
       </c>
       <c r="M13" t="n">
-        <v>553.7020787091481</v>
+        <v>931.4044030123514</v>
       </c>
       <c r="N13" t="n">
-        <v>1066.6782198082</v>
+        <v>1444.380544111403</v>
       </c>
       <c r="O13" t="n">
         <v>1547.248333321769</v>
@@ -5223,28 +5223,28 @@
         <v>2146.065310455691</v>
       </c>
       <c r="R13" t="n">
-        <v>2146.065310455691</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S13" t="n">
-        <v>1991.672999629679</v>
+        <v>1985.251796590666</v>
       </c>
       <c r="T13" t="n">
-        <v>1991.672999629679</v>
+        <v>1956.606824709252</v>
       </c>
       <c r="U13" t="n">
-        <v>1711.537824171156</v>
+        <v>1676.47164925073</v>
       </c>
       <c r="V13" t="n">
-        <v>1429.826356779185</v>
+        <v>1676.47164925073</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.973952951698</v>
+        <v>1676.47164925073</v>
       </c>
       <c r="X13" t="n">
-        <v>954.2369511198118</v>
+        <v>1433.907752696535</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.2369511198118</v>
+        <v>1207.564984386277</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>747.0661805456672</v>
+        <v>1262.402750481209</v>
       </c>
       <c r="C14" t="n">
-        <v>320.1654505589673</v>
+        <v>835.5020204945092</v>
       </c>
       <c r="D14" t="n">
-        <v>320.1654505589673</v>
+        <v>412.2093996795095</v>
       </c>
       <c r="E14" t="n">
-        <v>320.1654505589673</v>
+        <v>412.2093996795095</v>
       </c>
       <c r="F14" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G14" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H14" t="n">
         <v>42.92130620911383</v>
       </c>
       <c r="I14" t="n">
-        <v>84.81242438636593</v>
+        <v>84.81242438636627</v>
       </c>
       <c r="J14" t="n">
-        <v>223.2074279870266</v>
+        <v>223.2074279870268</v>
       </c>
       <c r="K14" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956536</v>
       </c>
       <c r="L14" t="n">
-        <v>712.416533635036</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M14" t="n">
         <v>1021.935294493278</v>
@@ -5314,16 +5314,16 @@
         <v>2087.588384817849</v>
       </c>
       <c r="V14" t="n">
-        <v>1960.514799122683</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W14" t="n">
-        <v>1564.12344942303</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X14" t="n">
-        <v>1152.403450590777</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="Y14" t="n">
-        <v>747.0661805456672</v>
+        <v>1682.251114772739</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I15" t="n">
-        <v>63.2704975562836</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J15" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K15" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L15" t="n">
-        <v>498.0032414541161</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M15" t="n">
-        <v>742.718164905895</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N15" t="n">
-        <v>996.2513690082706</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.574002310264</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P15" t="n">
-        <v>1404.681421549504</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q15" t="n">
         <v>1668.10954923374</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.6480832828263</v>
+        <v>508.2110477100958</v>
       </c>
       <c r="C16" t="n">
-        <v>752.6755201617423</v>
+        <v>508.2110477100958</v>
       </c>
       <c r="D16" t="n">
-        <v>589.358747288513</v>
+        <v>344.8942748368665</v>
       </c>
       <c r="E16" t="n">
-        <v>423.1505414413666</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="F16" t="n">
-        <v>251.288767215927</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="G16" t="n">
-        <v>251.288767215927</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I16" t="n">
         <v>42.92130620911383</v>
@@ -5442,19 +5442,19 @@
         <v>492.3984156126457</v>
       </c>
       <c r="L16" t="n">
-        <v>978.7170152690463</v>
+        <v>602.3281216778814</v>
       </c>
       <c r="M16" t="n">
-        <v>1103.108498928927</v>
+        <v>718.7630544313431</v>
       </c>
       <c r="N16" t="n">
-        <v>1218.051717186099</v>
+        <v>1066.6782198082</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.621830699668</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P16" t="n">
-        <v>2096.301629592816</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q16" t="n">
         <v>2146.065310455691</v>
@@ -5466,22 +5466,22 @@
         <v>1985.251796590666</v>
       </c>
       <c r="T16" t="n">
-        <v>1985.251796590666</v>
+        <v>1745.772170375137</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.116621132143</v>
+        <v>1465.636994916614</v>
       </c>
       <c r="V16" t="n">
-        <v>1583.720716859345</v>
+        <v>1183.925527524643</v>
       </c>
       <c r="W16" t="n">
-        <v>1583.720716859345</v>
+        <v>977.1177125745487</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.15682030515</v>
+        <v>734.5538160203538</v>
       </c>
       <c r="Y16" t="n">
-        <v>1114.814051994892</v>
+        <v>508.2110477100958</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.480158515549</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="C17" t="n">
-        <v>1064.579428528849</v>
+        <v>1507.054592094455</v>
       </c>
       <c r="D17" t="n">
-        <v>641.2868077138496</v>
+        <v>1083.761971279455</v>
       </c>
       <c r="E17" t="n">
-        <v>215.3098678617072</v>
+        <v>745.289632369567</v>
       </c>
       <c r="F17" t="n">
-        <v>215.3098678617072</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="G17" t="n">
-        <v>215.3098678617072</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H17" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I17" t="n">
-        <v>84.81242438636593</v>
+        <v>84.81242438636605</v>
       </c>
       <c r="J17" t="n">
         <v>223.2074279870266</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956535</v>
       </c>
       <c r="L17" t="n">
         <v>712.416533635036</v>
       </c>
       <c r="M17" t="n">
-        <v>1021.935294493277</v>
+        <v>1021.935294493278</v>
       </c>
       <c r="N17" t="n">
         <v>1337.212136355668</v>
       </c>
       <c r="O17" t="n">
-        <v>1632.752137974934</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P17" t="n">
-        <v>1879.382279157805</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q17" t="n">
-        <v>2056.763172699933</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R17" t="n">
         <v>2146.065310455691</v>
@@ -5545,22 +5545,22 @@
         <v>2146.065310455691</v>
       </c>
       <c r="T17" t="n">
-        <v>2146.065310455691</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="U17" t="n">
-        <v>1887.871508215202</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="V17" t="n">
-        <v>1887.871508215202</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="W17" t="n">
-        <v>1491.480158515549</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="X17" t="n">
-        <v>1491.480158515549</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1491.480158515549</v>
+        <v>1933.955322081155</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G18" t="n">
-        <v>85.89102611901656</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H18" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I18" t="n">
         <v>63.27049755628359</v>
       </c>
       <c r="J18" t="n">
-        <v>399.2381708097948</v>
+        <v>142.639713469636</v>
       </c>
       <c r="K18" t="n">
-        <v>547.5929615662282</v>
+        <v>290.9945042260694</v>
       </c>
       <c r="L18" t="n">
-        <v>754.6016987942749</v>
+        <v>498.0032414541161</v>
       </c>
       <c r="M18" t="n">
-        <v>999.3166222460538</v>
+        <v>742.718164905895</v>
       </c>
       <c r="N18" t="n">
-        <v>1252.849826348429</v>
+        <v>996.2513690082706</v>
       </c>
       <c r="O18" t="n">
-        <v>1481.172459650423</v>
+        <v>1224.574002310263</v>
       </c>
       <c r="P18" t="n">
         <v>1661.279878889663</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>492.564386674832</v>
+        <v>1017.399015674211</v>
       </c>
       <c r="C19" t="n">
-        <v>320.591823553748</v>
+        <v>845.4264525531271</v>
       </c>
       <c r="D19" t="n">
-        <v>251.288767215927</v>
+        <v>682.1096796798978</v>
       </c>
       <c r="E19" t="n">
-        <v>251.288767215927</v>
+        <v>515.9014738327513</v>
       </c>
       <c r="F19" t="n">
-        <v>251.288767215927</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G19" t="n">
-        <v>251.288767215927</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I19" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J19" t="n">
-        <v>85.08605645578089</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K19" t="n">
-        <v>414.4766989644248</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L19" t="n">
-        <v>524.4064050296605</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M19" t="n">
-        <v>1017.831780660354</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N19" t="n">
-        <v>1530.807921759406</v>
+        <v>1210.09516627968</v>
       </c>
       <c r="O19" t="n">
-        <v>2011.378035272975</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P19" t="n">
-        <v>2096.301629592816</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q19" t="n">
         <v>2146.065310455691</v>
@@ -5700,10 +5700,10 @@
         <v>2139.644107416678</v>
       </c>
       <c r="S19" t="n">
-        <v>1985.251796590665</v>
+        <v>1985.251796590666</v>
       </c>
       <c r="T19" t="n">
-        <v>1745.772170375136</v>
+        <v>1745.772170375137</v>
       </c>
       <c r="U19" t="n">
         <v>1465.636994916614</v>
@@ -5712,13 +5712,13 @@
         <v>1183.925527524643</v>
       </c>
       <c r="W19" t="n">
-        <v>909.0731236971556</v>
+        <v>1183.925527524643</v>
       </c>
       <c r="X19" t="n">
-        <v>909.0731236971556</v>
+        <v>1183.925527524643</v>
       </c>
       <c r="Y19" t="n">
-        <v>682.7303553868976</v>
+        <v>1183.925527524643</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1719.640271558668</v>
+        <v>893.1146570108135</v>
       </c>
       <c r="C20" t="n">
-        <v>1719.640271558668</v>
+        <v>466.2139270241136</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.347650743669</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="E20" t="n">
-        <v>870.370710891526</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="F20" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G20" t="n">
         <v>42.92130620911383</v>
@@ -5749,16 +5749,16 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I20" t="n">
-        <v>84.81242438636559</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J20" t="n">
-        <v>223.2074279870262</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K20" t="n">
-        <v>438.870672395653</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L20" t="n">
-        <v>712.4165336350356</v>
+        <v>712.416533635036</v>
       </c>
       <c r="M20" t="n">
         <v>1021.935294493278</v>
@@ -5779,25 +5779,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S20" t="n">
-        <v>2139.488635850198</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T20" t="n">
-        <v>2139.488635850198</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U20" t="n">
-        <v>2139.488635850198</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V20" t="n">
-        <v>2139.488635850198</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W20" t="n">
-        <v>2139.488635850198</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X20" t="n">
-        <v>2139.488635850198</v>
+        <v>1675.868385985596</v>
       </c>
       <c r="Y20" t="n">
-        <v>2139.488635850198</v>
+        <v>1270.531115940486</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>86.72780340069545</v>
       </c>
       <c r="J21" t="n">
-        <v>166.0970193140479</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K21" t="n">
-        <v>314.4518100704812</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L21" t="n">
-        <v>521.4605472985279</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M21" t="n">
-        <v>766.1754707503069</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N21" t="n">
-        <v>1019.708674852682</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O21" t="n">
         <v>1375.716959365517</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.4767351800423</v>
+        <v>410.8140039856632</v>
       </c>
       <c r="C22" t="n">
-        <v>588.5041720589583</v>
+        <v>238.8414408645792</v>
       </c>
       <c r="D22" t="n">
-        <v>588.5041720589583</v>
+        <v>238.8414408645792</v>
       </c>
       <c r="E22" t="n">
-        <v>588.5041720589583</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="F22" t="n">
-        <v>416.6423978335187</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G22" t="n">
-        <v>251.288767215927</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H22" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I22" t="n">
         <v>42.92130620911383</v>
       </c>
       <c r="J22" t="n">
-        <v>85.08605645578089</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K22" t="n">
-        <v>414.4766989644248</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L22" t="n">
-        <v>900.7952986208254</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M22" t="n">
-        <v>1430.765711837109</v>
+        <v>1329.437325854232</v>
       </c>
       <c r="N22" t="n">
-        <v>1908.51024606261</v>
+        <v>1444.380544111403</v>
       </c>
       <c r="O22" t="n">
-        <v>2011.378035272976</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P22" t="n">
-        <v>2096.301629592816</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q22" t="n">
         <v>2146.065310455691</v>
@@ -5937,25 +5937,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S22" t="n">
-        <v>1991.672999629679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T22" t="n">
-        <v>1752.19337341415</v>
+        <v>1906.585684240162</v>
       </c>
       <c r="U22" t="n">
-        <v>1472.058197955627</v>
+        <v>1626.45050878164</v>
       </c>
       <c r="V22" t="n">
-        <v>1225.495107719595</v>
+        <v>1344.739041389669</v>
       </c>
       <c r="W22" t="n">
-        <v>950.6427038921079</v>
+        <v>1069.886637562182</v>
       </c>
       <c r="X22" t="n">
-        <v>950.6427038921079</v>
+        <v>827.3227410079868</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.6427038921079</v>
+        <v>600.9799726977288</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1293.663331706526</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="C23" t="n">
-        <v>1293.663331706526</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D23" t="n">
-        <v>870.370710891526</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E23" t="n">
-        <v>870.370710891526</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F23" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G23" t="n">
         <v>42.92130620911383</v>
@@ -5986,25 +5986,25 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I23" t="n">
-        <v>84.81242438636536</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J23" t="n">
-        <v>223.207427987026</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K23" t="n">
-        <v>438.8706723956527</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L23" t="n">
-        <v>712.4165336350354</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M23" t="n">
-        <v>1021.935294493277</v>
+        <v>1021.935294493278</v>
       </c>
       <c r="N23" t="n">
         <v>1337.212136355668</v>
       </c>
       <c r="O23" t="n">
-        <v>1632.752137974934</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P23" t="n">
         <v>1879.382279157806</v>
@@ -6016,25 +6016,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S23" t="n">
-        <v>2109.903045697709</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T23" t="n">
-        <v>2109.903045697709</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="U23" t="n">
-        <v>2109.903045697709</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="V23" t="n">
-        <v>2109.903045697709</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="W23" t="n">
-        <v>1713.511695998056</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="X23" t="n">
-        <v>1713.511695998056</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="Y23" t="n">
-        <v>1713.511695998056</v>
+        <v>1875.478396443312</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I24" t="n">
-        <v>63.2704975562836</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J24" t="n">
-        <v>399.2381708097948</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K24" t="n">
-        <v>547.5929615662282</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L24" t="n">
-        <v>754.6016987942749</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M24" t="n">
-        <v>999.3166222460538</v>
+        <v>766.1754707503071</v>
       </c>
       <c r="N24" t="n">
-        <v>1252.849826348429</v>
+        <v>1019.708674852683</v>
       </c>
       <c r="O24" t="n">
         <v>1481.172459650423</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.9071549850903</v>
+        <v>751.1956622583825</v>
       </c>
       <c r="C25" t="n">
-        <v>546.9345918640063</v>
+        <v>751.1956622583825</v>
       </c>
       <c r="D25" t="n">
-        <v>383.617818990777</v>
+        <v>587.8788893851532</v>
       </c>
       <c r="E25" t="n">
-        <v>383.617818990777</v>
+        <v>421.6706835380068</v>
       </c>
       <c r="F25" t="n">
-        <v>211.7560447653374</v>
+        <v>249.8089093125672</v>
       </c>
       <c r="G25" t="n">
         <v>178.6860689897201</v>
@@ -6147,25 +6147,25 @@
         <v>42.92130620911383</v>
       </c>
       <c r="J25" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K25" t="n">
-        <v>245.1158064986237</v>
+        <v>414.4766989644249</v>
       </c>
       <c r="L25" t="n">
-        <v>355.0455125638593</v>
+        <v>900.7952986208254</v>
       </c>
       <c r="M25" t="n">
-        <v>553.7020787091481</v>
+        <v>1017.230231374287</v>
       </c>
       <c r="N25" t="n">
-        <v>1066.6782198082</v>
+        <v>1530.206372473339</v>
       </c>
       <c r="O25" t="n">
-        <v>1547.248333321769</v>
+        <v>2010.776485986908</v>
       </c>
       <c r="P25" t="n">
-        <v>1944.928132214917</v>
+        <v>2095.700080306749</v>
       </c>
       <c r="Q25" t="n">
         <v>2146.065310455691</v>
@@ -6186,13 +6186,13 @@
         <v>1183.925527524643</v>
       </c>
       <c r="W25" t="n">
-        <v>909.073123697156</v>
+        <v>1183.925527524643</v>
       </c>
       <c r="X25" t="n">
-        <v>909.073123697156</v>
+        <v>941.3616309704481</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.073123697156</v>
+        <v>941.3616309704481</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>870.370710891526</v>
+        <v>1667.74002052632</v>
       </c>
       <c r="C26" t="n">
-        <v>870.370710891526</v>
+        <v>1667.74002052632</v>
       </c>
       <c r="D26" t="n">
-        <v>870.370710891526</v>
+        <v>1244.44739971132</v>
       </c>
       <c r="E26" t="n">
-        <v>870.370710891526</v>
+        <v>1147.614855241379</v>
       </c>
       <c r="F26" t="n">
-        <v>445.2465290809261</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="G26" t="n">
-        <v>42.92130620911383</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H26" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I26" t="n">
-        <v>84.81242438636588</v>
+        <v>84.81242438636605</v>
       </c>
       <c r="J26" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870267</v>
       </c>
       <c r="K26" t="n">
-        <v>438.8706723956533</v>
+        <v>438.8706723956536</v>
       </c>
       <c r="L26" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350362</v>
       </c>
       <c r="M26" t="n">
         <v>1021.935294493278</v>
@@ -6244,34 +6244,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P26" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q26" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R26" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S26" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T26" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U26" t="n">
-        <v>2044.09983975646</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="V26" t="n">
-        <v>1686.610424882709</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="W26" t="n">
-        <v>1290.219075183056</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="X26" t="n">
-        <v>1290.219075183056</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="Y26" t="n">
-        <v>1290.219075183056</v>
+        <v>2087.58838481785</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G27" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H27" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I27" t="n">
-        <v>63.2704975562836</v>
+        <v>63.27049755628362</v>
       </c>
       <c r="J27" t="n">
-        <v>142.639713469636</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K27" t="n">
-        <v>290.9945042260694</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L27" t="n">
-        <v>498.0032414541161</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M27" t="n">
-        <v>742.718164905895</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N27" t="n">
-        <v>996.2513690082706</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.574002310264</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P27" t="n">
-        <v>1404.681421549504</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q27" t="n">
         <v>1773.565049518645</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.399015674211</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="C28" t="n">
-        <v>845.4264525531271</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="D28" t="n">
-        <v>682.1096796798978</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="E28" t="n">
-        <v>515.9014738327513</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.0396996073118</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="G28" t="n">
-        <v>178.6860689897201</v>
+        <v>251.288767215927</v>
       </c>
       <c r="H28" t="n">
-        <v>42.92130620911383</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="I28" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J28" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K28" t="n">
-        <v>167.1940898504028</v>
+        <v>414.4766989644249</v>
       </c>
       <c r="L28" t="n">
-        <v>277.1237959156384</v>
+        <v>900.7952986208254</v>
       </c>
       <c r="M28" t="n">
-        <v>807.0942091319218</v>
+        <v>1017.230231374287</v>
       </c>
       <c r="N28" t="n">
-        <v>1320.070350230974</v>
+        <v>1132.173449631459</v>
       </c>
       <c r="O28" t="n">
-        <v>1800.640463744543</v>
+        <v>1612.743563145028</v>
       </c>
       <c r="P28" t="n">
-        <v>2096.301629592816</v>
+        <v>2010.423362038176</v>
       </c>
       <c r="Q28" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R28" t="n">
-        <v>2146.065310455691</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="S28" t="n">
-        <v>2146.065310455691</v>
+        <v>1985.251796590667</v>
       </c>
       <c r="T28" t="n">
-        <v>1906.585684240162</v>
+        <v>1745.772170375138</v>
       </c>
       <c r="U28" t="n">
-        <v>1626.45050878164</v>
+        <v>1465.636994916615</v>
       </c>
       <c r="V28" t="n">
-        <v>1344.739041389669</v>
+        <v>1183.925527524644</v>
       </c>
       <c r="W28" t="n">
-        <v>1069.886637562182</v>
+        <v>909.0731236971569</v>
       </c>
       <c r="X28" t="n">
-        <v>1069.886637562182</v>
+        <v>666.509227142962</v>
       </c>
       <c r="Y28" t="n">
-        <v>1069.886637562182</v>
+        <v>606.8083665455842</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1296.347650743669</v>
+        <v>1675.761519840667</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.347650743669</v>
+        <v>1248.860789853967</v>
       </c>
       <c r="D29" t="n">
-        <v>1296.347650743669</v>
+        <v>825.5681690389677</v>
       </c>
       <c r="E29" t="n">
-        <v>870.370710891526</v>
+        <v>399.5912291868252</v>
       </c>
       <c r="F29" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G29" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H29" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I29" t="n">
-        <v>84.81242438636588</v>
+        <v>84.81242438636593</v>
       </c>
       <c r="J29" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870266</v>
       </c>
       <c r="K29" t="n">
-        <v>438.8706723956533</v>
+        <v>438.8706723956535</v>
       </c>
       <c r="L29" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M29" t="n">
         <v>1021.935294493278</v>
@@ -6478,37 +6478,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O29" t="n">
-        <v>1632.752137974935</v>
+        <v>1632.752137974936</v>
       </c>
       <c r="P29" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q29" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R29" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S29" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T29" t="n">
-        <v>1933.955322081155</v>
+        <v>1933.955322081156</v>
       </c>
       <c r="U29" t="n">
-        <v>1708.067649575921</v>
+        <v>1675.761519840667</v>
       </c>
       <c r="V29" t="n">
-        <v>1708.067649575921</v>
+        <v>1675.761519840667</v>
       </c>
       <c r="W29" t="n">
-        <v>1708.067649575921</v>
+        <v>1675.761519840667</v>
       </c>
       <c r="X29" t="n">
-        <v>1296.347650743669</v>
+        <v>1675.761519840667</v>
       </c>
       <c r="Y29" t="n">
-        <v>1296.347650743669</v>
+        <v>1675.761519840667</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G30" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H30" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I30" t="n">
-        <v>63.2704975562836</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J30" t="n">
-        <v>399.2381708097948</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K30" t="n">
-        <v>547.5929615662282</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L30" t="n">
-        <v>754.6016987942749</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M30" t="n">
         <v>999.3166222460538</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>404.3928009466501</v>
+        <v>410.8140039856641</v>
       </c>
       <c r="C31" t="n">
-        <v>404.3928009466501</v>
+        <v>410.8140039856641</v>
       </c>
       <c r="D31" t="n">
-        <v>404.3928009466501</v>
+        <v>410.8140039856641</v>
       </c>
       <c r="E31" t="n">
-        <v>238.1845950995036</v>
+        <v>410.8140039856641</v>
       </c>
       <c r="F31" t="n">
-        <v>238.1845950995036</v>
+        <v>238.9522297602245</v>
       </c>
       <c r="G31" t="n">
-        <v>238.1845950995036</v>
+        <v>73.59859914263285</v>
       </c>
       <c r="H31" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I31" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J31" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K31" t="n">
-        <v>328.6508706024891</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L31" t="n">
-        <v>814.9694702588897</v>
+        <v>487.8613674440719</v>
       </c>
       <c r="M31" t="n">
-        <v>931.4044030123514</v>
+        <v>1017.831780660355</v>
       </c>
       <c r="N31" t="n">
-        <v>1444.380544111403</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O31" t="n">
-        <v>1547.248333321769</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P31" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q31" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R31" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S31" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T31" t="n">
-        <v>1900.164481201149</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="U31" t="n">
-        <v>1620.029305742627</v>
+        <v>1626.450508781641</v>
       </c>
       <c r="V31" t="n">
-        <v>1338.317838350656</v>
+        <v>1344.73904138967</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.465434523169</v>
+        <v>1069.886637562183</v>
       </c>
       <c r="X31" t="n">
-        <v>820.9015379689737</v>
+        <v>827.3227410079877</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5587696587157</v>
+        <v>600.9799726977297</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>551.6702624130484</v>
+        <v>895.7989760479561</v>
       </c>
       <c r="C32" t="n">
-        <v>551.6702624130484</v>
+        <v>468.8982460612563</v>
       </c>
       <c r="D32" t="n">
-        <v>128.3776415980486</v>
+        <v>468.8982460612563</v>
       </c>
       <c r="E32" t="n">
-        <v>128.3776415980486</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="F32" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G32" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H32" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I32" t="n">
-        <v>84.81242438636559</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J32" t="n">
-        <v>223.2074279870262</v>
+        <v>223.207427987027</v>
       </c>
       <c r="K32" t="n">
-        <v>438.870672395653</v>
+        <v>438.8706723956539</v>
       </c>
       <c r="L32" t="n">
-        <v>712.4165336350356</v>
+        <v>712.4165336350366</v>
       </c>
       <c r="M32" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N32" t="n">
-        <v>1337.212136355668</v>
+        <v>1337.212136355669</v>
       </c>
       <c r="O32" t="n">
-        <v>1632.752137974935</v>
+        <v>1632.752137974936</v>
       </c>
       <c r="P32" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q32" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R32" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S32" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T32" t="n">
-        <v>2146.065310455691</v>
+        <v>1875.478396443313</v>
       </c>
       <c r="U32" t="n">
-        <v>2146.065310455691</v>
+        <v>1712.856244925319</v>
       </c>
       <c r="V32" t="n">
-        <v>1788.575895581941</v>
+        <v>1712.856244925319</v>
       </c>
       <c r="W32" t="n">
-        <v>1788.575895581941</v>
+        <v>1712.856244925319</v>
       </c>
       <c r="X32" t="n">
-        <v>1376.855896749688</v>
+        <v>1301.136246093066</v>
       </c>
       <c r="Y32" t="n">
-        <v>971.5186267045784</v>
+        <v>895.7989760479561</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G33" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H33" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I33" t="n">
-        <v>63.2704975562836</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J33" t="n">
-        <v>399.2381708097948</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K33" t="n">
-        <v>547.5929615662282</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L33" t="n">
-        <v>754.6016987942749</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M33" t="n">
-        <v>999.3166222460538</v>
+        <v>766.1754707503071</v>
       </c>
       <c r="N33" t="n">
-        <v>1252.849826348429</v>
+        <v>1019.708674852683</v>
       </c>
       <c r="O33" t="n">
-        <v>1481.172459650423</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P33" t="n">
-        <v>1661.279878889663</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q33" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R33" t="n">
         <v>1815.69702447452</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>881.6342528936049</v>
+        <v>386.7556435556374</v>
       </c>
       <c r="C34" t="n">
-        <v>709.6616897725208</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="D34" t="n">
-        <v>546.3449168992915</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="E34" t="n">
-        <v>380.1367110521451</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="F34" t="n">
-        <v>208.2749368267055</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G34" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H34" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I34" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J34" t="n">
         <v>163.0077731040018</v>
@@ -6867,43 +6867,43 @@
         <v>978.7170152690463</v>
       </c>
       <c r="M34" t="n">
-        <v>1103.108498928927</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N34" t="n">
-        <v>1218.051717186099</v>
+        <v>1210.09516627968</v>
       </c>
       <c r="O34" t="n">
-        <v>1698.621830699668</v>
+        <v>1547.24833332177</v>
       </c>
       <c r="P34" t="n">
-        <v>2096.301629592816</v>
+        <v>1944.928132214918</v>
       </c>
       <c r="Q34" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R34" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S34" t="n">
-        <v>2139.644107416678</v>
+        <v>2122.006950025665</v>
       </c>
       <c r="T34" t="n">
-        <v>2139.644107416678</v>
+        <v>1882.527323810137</v>
       </c>
       <c r="U34" t="n">
-        <v>2097.270757689581</v>
+        <v>1602.392148351614</v>
       </c>
       <c r="V34" t="n">
-        <v>1815.55929029761</v>
+        <v>1320.680680959643</v>
       </c>
       <c r="W34" t="n">
-        <v>1540.706886470123</v>
+        <v>1045.828277132156</v>
       </c>
       <c r="X34" t="n">
-        <v>1298.142989915928</v>
+        <v>803.264380577961</v>
       </c>
       <c r="Y34" t="n">
-        <v>1071.80022160567</v>
+        <v>576.921612267703</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1617.284594202824</v>
+        <v>512.7683275871467</v>
       </c>
       <c r="C35" t="n">
-        <v>1617.284594202824</v>
+        <v>512.7683275871467</v>
       </c>
       <c r="D35" t="n">
-        <v>1573.591795093522</v>
+        <v>89.47570677214696</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.614855241379</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="F35" t="n">
-        <v>722.4906734307796</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G35" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H35" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I35" t="n">
-        <v>84.81242438636536</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J35" t="n">
-        <v>223.207427987026</v>
+        <v>223.2074279870262</v>
       </c>
       <c r="K35" t="n">
-        <v>438.8706723956527</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L35" t="n">
-        <v>712.4165336350354</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M35" t="n">
-        <v>1021.935294493277</v>
+        <v>1021.935294493278</v>
       </c>
       <c r="N35" t="n">
         <v>1337.212136355668</v>
       </c>
       <c r="O35" t="n">
-        <v>1632.752137974934</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P35" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q35" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R35" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.588384817849</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T35" t="n">
-        <v>1875.478396443312</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="U35" t="n">
-        <v>1617.284594202824</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="V35" t="n">
-        <v>1617.284594202824</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="W35" t="n">
-        <v>1617.284594202824</v>
+        <v>1749.673960756039</v>
       </c>
       <c r="X35" t="n">
-        <v>1617.284594202824</v>
+        <v>1337.953961923786</v>
       </c>
       <c r="Y35" t="n">
-        <v>1617.284594202824</v>
+        <v>932.6166918786768</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G36" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H36" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I36" t="n">
         <v>86.72780340069545</v>
       </c>
       <c r="J36" t="n">
-        <v>166.0970193140479</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K36" t="n">
-        <v>314.4518100704812</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L36" t="n">
-        <v>521.4605472985279</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M36" t="n">
-        <v>999.3166222460538</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N36" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O36" t="n">
-        <v>1481.172459650423</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R36" t="n">
         <v>1815.69702447452</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>250.0004901206375</v>
+        <v>1017.399015674211</v>
       </c>
       <c r="C37" t="n">
-        <v>206.2380790823431</v>
+        <v>845.4264525531272</v>
       </c>
       <c r="D37" t="n">
-        <v>42.92130620911383</v>
+        <v>682.1096796798979</v>
       </c>
       <c r="E37" t="n">
-        <v>42.92130620911383</v>
+        <v>515.9014738327514</v>
       </c>
       <c r="F37" t="n">
-        <v>42.92130620911383</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G37" t="n">
-        <v>42.92130620911383</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H37" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I37" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J37" t="n">
-        <v>85.08605645578089</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K37" t="n">
-        <v>167.1940898504028</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L37" t="n">
-        <v>277.1237959156384</v>
+        <v>814.9694702588906</v>
       </c>
       <c r="M37" t="n">
-        <v>807.0942091319218</v>
+        <v>931.4044030123523</v>
       </c>
       <c r="N37" t="n">
-        <v>1218.051717186099</v>
+        <v>1444.380544111404</v>
       </c>
       <c r="O37" t="n">
-        <v>1698.621830699668</v>
+        <v>1547.24833332177</v>
       </c>
       <c r="P37" t="n">
-        <v>2096.301629592816</v>
+        <v>1944.928132214918</v>
       </c>
       <c r="Q37" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R37" t="n">
-        <v>2139.644107416678</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="S37" t="n">
-        <v>1985.251796590666</v>
+        <v>1985.251796590667</v>
       </c>
       <c r="T37" t="n">
-        <v>1745.772170375137</v>
+        <v>1745.772170375138</v>
       </c>
       <c r="U37" t="n">
-        <v>1465.636994916614</v>
+        <v>1465.636994916615</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.925527524643</v>
+        <v>1243.741783984469</v>
       </c>
       <c r="W37" t="n">
-        <v>909.073123697156</v>
+        <v>1243.741783984469</v>
       </c>
       <c r="X37" t="n">
-        <v>666.5092271429611</v>
+        <v>1243.741783984469</v>
       </c>
       <c r="Y37" t="n">
-        <v>440.1664588327031</v>
+        <v>1017.399015674211</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>874.1397662408332</v>
+        <v>1721.416819734768</v>
       </c>
       <c r="C38" t="n">
-        <v>874.1397662408332</v>
+        <v>1294.516089748068</v>
       </c>
       <c r="D38" t="n">
-        <v>874.1397662408332</v>
+        <v>871.2234689330685</v>
       </c>
       <c r="E38" t="n">
-        <v>448.1628263886907</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="F38" t="n">
         <v>445.2465290809261</v>
       </c>
       <c r="G38" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H38" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I38" t="n">
-        <v>84.8124243863659</v>
+        <v>84.81242438636627</v>
       </c>
       <c r="J38" t="n">
-        <v>223.2074279870261</v>
+        <v>223.2074279870269</v>
       </c>
       <c r="K38" t="n">
-        <v>438.870672395653</v>
+        <v>438.8706723956539</v>
       </c>
       <c r="L38" t="n">
-        <v>712.4165336350356</v>
+        <v>712.4165336350364</v>
       </c>
       <c r="M38" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N38" t="n">
-        <v>1337.212136355668</v>
+        <v>1337.212136355669</v>
       </c>
       <c r="O38" t="n">
         <v>1632.752137974935</v>
       </c>
       <c r="P38" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q38" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R38" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T38" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U38" t="n">
-        <v>2087.588384817849</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="V38" t="n">
-        <v>2087.588384817849</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="W38" t="n">
-        <v>1691.197035118196</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="X38" t="n">
-        <v>1279.477036285943</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="Y38" t="n">
-        <v>874.1397662408332</v>
+        <v>1829.394582577361</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G39" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H39" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I39" t="n">
-        <v>86.72780340069545</v>
+        <v>63.27049755628362</v>
       </c>
       <c r="J39" t="n">
-        <v>166.0970193140479</v>
+        <v>142.639713469636</v>
       </c>
       <c r="K39" t="n">
-        <v>314.4518100704813</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L39" t="n">
-        <v>521.460547298528</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M39" t="n">
-        <v>766.1754707503071</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N39" t="n">
-        <v>1019.708674852683</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O39" t="n">
-        <v>1248.031308154676</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P39" t="n">
-        <v>1555.824378604757</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q39" t="n">
-        <v>1668.10954923374</v>
+        <v>1773.565049518645</v>
       </c>
       <c r="R39" t="n">
         <v>1815.69702447452</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>769.615291794689</v>
+        <v>630.735569256909</v>
       </c>
       <c r="C40" t="n">
-        <v>597.642728673605</v>
+        <v>458.763006135825</v>
       </c>
       <c r="D40" t="n">
-        <v>434.3259558003757</v>
+        <v>295.4462332625957</v>
       </c>
       <c r="E40" t="n">
-        <v>268.1177499532292</v>
+        <v>214.7830804345534</v>
       </c>
       <c r="F40" t="n">
-        <v>251.288767215927</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.288767215927</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H40" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I40" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J40" t="n">
         <v>163.0077731040018</v>
@@ -7341,43 +7341,43 @@
         <v>978.7170152690463</v>
       </c>
       <c r="M40" t="n">
-        <v>1508.68742848533</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N40" t="n">
-        <v>1908.51024606261</v>
+        <v>1210.09516627968</v>
       </c>
       <c r="O40" t="n">
-        <v>2011.378035272976</v>
+        <v>1547.24833332177</v>
       </c>
       <c r="P40" t="n">
-        <v>2096.301629592816</v>
+        <v>1944.928132214918</v>
       </c>
       <c r="Q40" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R40" t="n">
-        <v>2139.644107416678</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.251796590666</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="T40" t="n">
-        <v>1985.251796590666</v>
+        <v>1900.16448120115</v>
       </c>
       <c r="U40" t="n">
-        <v>1985.251796590666</v>
+        <v>1620.029305742628</v>
       </c>
       <c r="V40" t="n">
-        <v>1703.540329198695</v>
+        <v>1338.317838350657</v>
       </c>
       <c r="W40" t="n">
-        <v>1428.687925371207</v>
+        <v>1063.46543452317</v>
       </c>
       <c r="X40" t="n">
-        <v>1186.124028817013</v>
+        <v>820.9015379689746</v>
       </c>
       <c r="Y40" t="n">
-        <v>959.7812605067547</v>
+        <v>820.9015379689746</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>469.8220361958137</v>
+        <v>871.2234689330685</v>
       </c>
       <c r="C41" t="n">
-        <v>42.92130620911384</v>
+        <v>871.2234689330685</v>
       </c>
       <c r="D41" t="n">
-        <v>42.92130620911384</v>
+        <v>871.2234689330685</v>
       </c>
       <c r="E41" t="n">
-        <v>42.92130620911384</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="F41" t="n">
-        <v>42.92130620911384</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="G41" t="n">
         <v>42.92130620911384</v>
@@ -7426,37 +7426,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O41" t="n">
-        <v>1632.752137974935</v>
+        <v>1632.752137974936</v>
       </c>
       <c r="P41" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q41" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R41" t="n">
         <v>2146.065310455692</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.588384817849</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T41" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="U41" t="n">
-        <v>1617.284594202824</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="V41" t="n">
-        <v>1617.284594202824</v>
+        <v>1788.575895581942</v>
       </c>
       <c r="W41" t="n">
-        <v>1617.284594202824</v>
+        <v>1392.184545882289</v>
       </c>
       <c r="X41" t="n">
-        <v>1205.564595370571</v>
+        <v>1276.560738978178</v>
       </c>
       <c r="Y41" t="n">
-        <v>800.2273253254617</v>
+        <v>871.2234689330685</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G42" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H42" t="n">
         <v>42.92130620911384</v>
       </c>
       <c r="I42" t="n">
-        <v>86.72780340069545</v>
+        <v>63.27049755628362</v>
       </c>
       <c r="J42" t="n">
-        <v>166.0970193140479</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K42" t="n">
-        <v>314.4518100704813</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L42" t="n">
-        <v>521.460547298528</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M42" t="n">
-        <v>766.1754707503071</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.708674852683</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O42" t="n">
-        <v>1248.031308154676</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P42" t="n">
         <v>1661.279878889663</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.8140039856636</v>
+        <v>513.9754049840334</v>
       </c>
       <c r="C43" t="n">
-        <v>238.8414408645797</v>
+        <v>342.0028418629494</v>
       </c>
       <c r="D43" t="n">
-        <v>214.7830804345534</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="E43" t="n">
-        <v>214.7830804345534</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="F43" t="n">
-        <v>42.92130620911384</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="G43" t="n">
-        <v>42.92130620911384</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H43" t="n">
         <v>42.92130620911384</v>
@@ -7569,25 +7569,25 @@
         <v>42.92130620911384</v>
       </c>
       <c r="J43" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K43" t="n">
-        <v>492.3984156126457</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L43" t="n">
-        <v>978.7170152690463</v>
+        <v>653.5126895068033</v>
       </c>
       <c r="M43" t="n">
-        <v>1095.151948022508</v>
+        <v>769.947622260265</v>
       </c>
       <c r="N43" t="n">
-        <v>1210.09516627968</v>
+        <v>1282.923763359317</v>
       </c>
       <c r="O43" t="n">
-        <v>1547.24833332177</v>
+        <v>1763.493876872886</v>
       </c>
       <c r="P43" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q43" t="n">
         <v>2146.065310455692</v>
@@ -7602,19 +7602,19 @@
         <v>1906.585684240163</v>
       </c>
       <c r="U43" t="n">
-        <v>1626.45050878164</v>
+        <v>1626.450508781641</v>
       </c>
       <c r="V43" t="n">
-        <v>1344.739041389669</v>
+        <v>1344.73904138967</v>
       </c>
       <c r="W43" t="n">
-        <v>1069.886637562182</v>
+        <v>1069.886637562183</v>
       </c>
       <c r="X43" t="n">
-        <v>827.3227410079872</v>
+        <v>827.3227410079877</v>
       </c>
       <c r="Y43" t="n">
-        <v>600.9799726977293</v>
+        <v>600.9799726977297</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1675.868385985596</v>
+        <v>1598.167302208409</v>
       </c>
       <c r="C44" t="n">
-        <v>1675.868385985596</v>
+        <v>1171.266572221709</v>
       </c>
       <c r="D44" t="n">
-        <v>1573.591795093522</v>
+        <v>1171.266572221709</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.614855241379</v>
+        <v>745.289632369567</v>
       </c>
       <c r="F44" t="n">
-        <v>722.4906734307796</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="G44" t="n">
         <v>320.1654505589673</v>
@@ -7675,25 +7675,25 @@
         <v>2146.065310455692</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T44" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U44" t="n">
-        <v>2087.588384817849</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="V44" t="n">
-        <v>2087.588384817849</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="W44" t="n">
-        <v>2087.588384817849</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="X44" t="n">
-        <v>1675.868385985596</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="Y44" t="n">
-        <v>1675.868385985596</v>
+        <v>1598.167302208409</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G45" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H45" t="n">
         <v>42.92130620911384</v>
       </c>
       <c r="I45" t="n">
-        <v>63.27049755628361</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J45" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K45" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L45" t="n">
-        <v>498.0032414541162</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M45" t="n">
-        <v>742.7181649058953</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N45" t="n">
-        <v>996.2513690082708</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O45" t="n">
-        <v>1224.574002310264</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P45" t="n">
-        <v>1404.681421549504</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R45" t="n">
         <v>1815.69702447452</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>250.0004901206379</v>
+        <v>1017.399015674211</v>
       </c>
       <c r="C46" t="n">
-        <v>78.02792699955396</v>
+        <v>845.4264525531272</v>
       </c>
       <c r="D46" t="n">
-        <v>42.92130620911384</v>
+        <v>682.1096796798979</v>
       </c>
       <c r="E46" t="n">
-        <v>42.92130620911384</v>
+        <v>515.9014738327514</v>
       </c>
       <c r="F46" t="n">
-        <v>42.92130620911384</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G46" t="n">
-        <v>42.92130620911384</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H46" t="n">
         <v>42.92130620911384</v>
@@ -7806,52 +7806,52 @@
         <v>42.92130620911384</v>
       </c>
       <c r="J46" t="n">
-        <v>85.08605645578092</v>
+        <v>144.4501306063154</v>
       </c>
       <c r="K46" t="n">
-        <v>167.1940898504028</v>
+        <v>226.5581640009373</v>
       </c>
       <c r="L46" t="n">
-        <v>653.5126895068033</v>
+        <v>336.4878700661729</v>
       </c>
       <c r="M46" t="n">
-        <v>1183.483102723087</v>
+        <v>866.4582832824565</v>
       </c>
       <c r="N46" t="n">
-        <v>1696.459243822139</v>
+        <v>1379.434424381509</v>
       </c>
       <c r="O46" t="n">
-        <v>2011.378035272976</v>
+        <v>1860.004537895078</v>
       </c>
       <c r="P46" t="n">
-        <v>2096.301629592817</v>
+        <v>1944.928132214918</v>
       </c>
       <c r="Q46" t="n">
         <v>2146.065310455692</v>
       </c>
       <c r="R46" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.251796590666</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T46" t="n">
-        <v>1745.772170375137</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U46" t="n">
-        <v>1465.636994916615</v>
+        <v>1518.594187811956</v>
       </c>
       <c r="V46" t="n">
-        <v>1183.925527524643</v>
+        <v>1518.594187811956</v>
       </c>
       <c r="W46" t="n">
-        <v>909.0731236971565</v>
+        <v>1243.741783984469</v>
       </c>
       <c r="X46" t="n">
-        <v>666.5092271429615</v>
+        <v>1243.741783984469</v>
       </c>
       <c r="Y46" t="n">
-        <v>440.1664588327036</v>
+        <v>1017.399015674211</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>128.9754052634761</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>161.7609596364121</v>
+        <v>293.4980456860902</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.6696535911649</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9090,13 +9090,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>8.036920107493955</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>235.3251991107931</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>259.1903609496555</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>380.7984271487191</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>236.651896799721</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>128.9754052634762</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9567,19 +9567,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>236.6518967997208</v>
       </c>
       <c r="N22" t="n">
-        <v>366.4659757255849</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>235.4961126219664</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>83.05215494123942</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0.6076255414822853</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>259.1903609496553</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>212.8662338671037</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.74572480266754</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>235.4961126219664</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>163.0876573253398</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>212.8662338671045</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>128.9754052634759</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,19 +10515,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>8.036920107493955</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>236.6518967997216</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>235.4961126219666</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>214.7892409909184</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>299.004333128288</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>259.1903609496553</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>128.9754052634758</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,19 +10989,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>287.7571710304123</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>236.6518967997216</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>259.1903609496553</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>235.4961126219663</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>236.6518967997212</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>250.3880387879701</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>259.1903609496552</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>59.96371126316612</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -11469,13 +11469,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>214.1929315560318</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>311.4869681244245</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>123.7639873505403</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U11" t="n">
         <v>255.6118642180837</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.0848299533737</v>
+        <v>208.7263077907743</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>41.40862577508557</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>55.27772745680204</v>
       </c>
       <c r="G14" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V14" t="n">
-        <v>228.1116708867987</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7000943114157</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>158.712407487981</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>67.36414298861874</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>86.62955493283158</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H17" t="n">
-        <v>103.8070268702875</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>57.89215638146403</v>
       </c>
       <c r="T17" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>23.4030622930174</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>93.0735793700542</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>42.00758630823856</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H20" t="n">
         <v>274.4717029063549</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>51.38124852202568</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.9888884907911</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>140.7283469629494</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.356991008623019</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.79689338437933</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>285.6998890565557</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H23" t="n">
         <v>274.4717029063549</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>22.09151427106137</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.6118642180837</v>
@@ -24268,7 +24268,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.9608182935546</v>
+        <v>93.28848239179713</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24448,10 +24448,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>325.8529514283799</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.9888884907911</v>
       </c>
       <c r="U26" t="n">
-        <v>154.6660482258443</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.3015633558541</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>164.9754886357514</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>67.7697162445595</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H29" t="n">
         <v>274.4717029063549</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.89215638146403</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>31.98306843790235</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24846,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.9731303952591</v>
+        <v>104.0365951486164</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S31" t="n">
         <v>152.8483877177524</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>336.2711679574483</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.3019706430941</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6118642180837</v>
+        <v>94.61593421526911</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H34" t="n">
         <v>134.4071151528002</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S34" t="n">
-        <v>152.8483877177524</v>
+        <v>129.0306108920259</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>235.3842074741113</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>375.8038234886408</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>375.6283138962182</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9280505619617</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>71.87667124394481</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>59.21809389522704</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>308.7518954344477</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>417.9858056578067</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>209.9888884907911</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>84.68960248891315</v>
       </c>
       <c r="F40" t="n">
-        <v>153.482463573256</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88.54864441026325</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.4717029063549</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>293.1352300088607</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>102.1297869883856</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>137.865828318771</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>71.87667124394481</v>
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>317.8058696236958</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>209.9888884907911</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>172.3688897793963</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>126.9280505619613</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>71.87667124394481</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.07062995776477</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>325125.311599576</v>
+        <v>325125.3115995759</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>325125.3115995759</v>
+        <v>325125.311599576</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>325125.3115995759</v>
+        <v>325125.311599576</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>325125.311599576</v>
+        <v>325125.3115995759</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>325125.3115995759</v>
+        <v>325125.311599576</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>325125.311599576</v>
+        <v>325125.3115995761</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>325125.311599576</v>
+        <v>325125.3115995761</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>325125.3115995759</v>
+        <v>325125.3115995761</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>325125.3115995759</v>
+        <v>325125.3115995761</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>325125.3115995759</v>
+        <v>325125.3115995761</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>325125.3115995759</v>
+        <v>325125.311599576</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502037.5599860537</v>
+        <v>502037.5599860538</v>
       </c>
       <c r="C2" t="n">
         <v>502048.2424777885</v>
       </c>
       <c r="D2" t="n">
-        <v>502049.426221913</v>
+        <v>502049.4262219131</v>
       </c>
       <c r="E2" t="n">
         <v>299290.9833995409</v>
       </c>
       <c r="F2" t="n">
-        <v>299290.9833995408</v>
+        <v>299290.983399541</v>
       </c>
       <c r="G2" t="n">
-        <v>299290.9833995409</v>
+        <v>299290.983399541</v>
       </c>
       <c r="H2" t="n">
         <v>299290.9833995409</v>
       </c>
       <c r="I2" t="n">
-        <v>299290.9833995408</v>
+        <v>299290.983399541</v>
       </c>
       <c r="J2" t="n">
-        <v>299290.9833995411</v>
+        <v>299290.9833995409</v>
       </c>
       <c r="K2" t="n">
         <v>299290.9833995411</v>
       </c>
       <c r="L2" t="n">
-        <v>299290.983399541</v>
+        <v>299290.9833995411</v>
       </c>
       <c r="M2" t="n">
-        <v>299290.983399541</v>
+        <v>299290.9833995411</v>
       </c>
       <c r="N2" t="n">
-        <v>299290.9833995409</v>
+        <v>299290.9833995411</v>
       </c>
       <c r="O2" t="n">
-        <v>299290.9833995409</v>
+        <v>299290.9833995412</v>
       </c>
       <c r="P2" t="n">
-        <v>299290.9833995409</v>
+        <v>299290.9833995411</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>34741.06549511107</v>
       </c>
       <c r="D3" t="n">
-        <v>3620.625146095259</v>
+        <v>3620.625146095253</v>
       </c>
       <c r="E3" t="n">
-        <v>524578.4119623892</v>
+        <v>524578.4119623891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>26278.34548684458</v>
       </c>
       <c r="G4" t="n">
-        <v>26278.34548684457</v>
+        <v>26278.34548684459</v>
       </c>
       <c r="H4" t="n">
         <v>26278.34548684458</v>
       </c>
       <c r="I4" t="n">
+        <v>26278.34548684457</v>
+      </c>
+      <c r="J4" t="n">
         <v>26278.34548684459</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>26278.34548684458</v>
       </c>
-      <c r="K4" t="n">
-        <v>26278.34548684459</v>
-      </c>
       <c r="L4" t="n">
-        <v>26278.34548684458</v>
+        <v>26278.3454868446</v>
       </c>
       <c r="M4" t="n">
-        <v>26278.34548684458</v>
+        <v>26278.3454868446</v>
       </c>
       <c r="N4" t="n">
-        <v>26278.34548684458</v>
+        <v>26278.3454868446</v>
       </c>
       <c r="O4" t="n">
-        <v>26278.34548684458</v>
+        <v>26278.3454868446</v>
       </c>
       <c r="P4" t="n">
         <v>26278.34548684459</v>
@@ -26493,25 +26493,25 @@
         <v>43431.53559403696</v>
       </c>
       <c r="J5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="K5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="L5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="M5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="N5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="O5" t="n">
-        <v>43431.53559403697</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="P5" t="n">
-        <v>43431.53559403697</v>
+        <v>43431.53559403698</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140928.2343419102</v>
+        <v>140906.520700414</v>
       </c>
       <c r="C6" t="n">
-        <v>118663.8624498799</v>
+        <v>118642.1793297886</v>
       </c>
       <c r="D6" t="n">
-        <v>151109.6297454131</v>
+        <v>151087.9500074478</v>
       </c>
       <c r="E6" t="n">
-        <v>-294997.3096437299</v>
+        <v>-295598.2992183304</v>
       </c>
       <c r="F6" t="n">
-        <v>229581.1023186592</v>
+        <v>228980.1127440588</v>
       </c>
       <c r="G6" t="n">
-        <v>229581.1023186594</v>
+        <v>228980.1127440588</v>
       </c>
       <c r="H6" t="n">
-        <v>229581.1023186594</v>
+        <v>228980.1127440587</v>
       </c>
       <c r="I6" t="n">
-        <v>229581.1023186593</v>
+        <v>228980.1127440588</v>
       </c>
       <c r="J6" t="n">
-        <v>229581.1023186595</v>
+        <v>228980.1127440587</v>
       </c>
       <c r="K6" t="n">
-        <v>229581.1023186595</v>
+        <v>228980.1127440589</v>
       </c>
       <c r="L6" t="n">
-        <v>229581.1023186595</v>
+        <v>228980.1127440588</v>
       </c>
       <c r="M6" t="n">
-        <v>95879.08741195944</v>
+        <v>95278.09783735883</v>
       </c>
       <c r="N6" t="n">
-        <v>229581.1023186594</v>
+        <v>228980.1127440588</v>
       </c>
       <c r="O6" t="n">
-        <v>229581.1023186594</v>
+        <v>228980.112744059</v>
       </c>
       <c r="P6" t="n">
-        <v>229581.1023186594</v>
+        <v>228980.1127440589</v>
       </c>
     </row>
   </sheetData>
@@ -26746,31 +26746,31 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="H3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9331594087364</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="N3" t="n">
         <v>495.9331594087365</v>
@@ -26804,7 +26804,7 @@
         <v>536.5163276139228</v>
       </c>
       <c r="G4" t="n">
-        <v>536.5163276139227</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="H4" t="n">
         <v>536.5163276139228</v>
@@ -26813,25 +26813,25 @@
         <v>536.5163276139228</v>
       </c>
       <c r="J4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="K4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="L4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="N4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="O4" t="n">
-        <v>536.516327613923</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="P4" t="n">
-        <v>536.516327613923</v>
+        <v>536.5163276139231</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="D3" t="n">
-        <v>4.227657588613987</v>
+        <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
         <v>453.5537456246483</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139227</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139227</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139227</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H11" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86216332906659</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J11" t="n">
         <v>169.2128924155467</v>
@@ -31773,10 +31773,10 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N11" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P11" t="n">
         <v>286.6967165404042</v>
@@ -31788,13 +31788,13 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T11" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I12" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J12" t="n">
         <v>100.7820394983358</v>
@@ -31855,7 +31855,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O12" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P12" t="n">
         <v>203.6975273050714</v>
@@ -31867,13 +31867,13 @@
         <v>66.23046985462335</v>
       </c>
       <c r="S12" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T12" t="n">
         <v>4.299646919779515</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951190654126959</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I13" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J13" t="n">
-        <v>63.22741279871709</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K13" t="n">
         <v>103.902061922027</v>
@@ -31940,7 +31940,7 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R13" t="n">
         <v>40.21123617107556</v>
@@ -31949,10 +31949,10 @@
         <v>15.58530928830405</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H14" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I14" t="n">
-        <v>76.86216332906659</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J14" t="n">
         <v>169.2128924155467</v>
@@ -32010,10 +32010,10 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N14" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P14" t="n">
         <v>286.6967165404042</v>
@@ -32025,13 +32025,13 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S14" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T14" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I15" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J15" t="n">
         <v>100.7820394983358</v>
@@ -32092,7 +32092,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O15" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P15" t="n">
         <v>203.6975273050714</v>
@@ -32104,13 +32104,13 @@
         <v>66.23046985462335</v>
       </c>
       <c r="S15" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T15" t="n">
         <v>4.299646919779515</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951190654126959</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I16" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J16" t="n">
-        <v>63.22741279871709</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K16" t="n">
         <v>103.902061922027</v>
@@ -32177,7 +32177,7 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R16" t="n">
         <v>40.21123617107556</v>
@@ -32186,10 +32186,10 @@
         <v>15.58530928830405</v>
       </c>
       <c r="T16" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H17" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I17" t="n">
-        <v>76.86216332906659</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J17" t="n">
         <v>169.2128924155467</v>
@@ -32247,10 +32247,10 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N17" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P17" t="n">
         <v>286.6967165404042</v>
@@ -32262,13 +32262,13 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S17" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T17" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I18" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J18" t="n">
         <v>100.7820394983358</v>
@@ -32329,7 +32329,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O18" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P18" t="n">
         <v>203.6975273050714</v>
@@ -32341,13 +32341,13 @@
         <v>66.23046985462335</v>
       </c>
       <c r="S18" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T18" t="n">
         <v>4.299646919779515</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951190654126959</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I19" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J19" t="n">
-        <v>63.22741279871709</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K19" t="n">
         <v>103.902061922027</v>
@@ -32414,7 +32414,7 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R19" t="n">
         <v>40.21123617107556</v>
@@ -32423,10 +32423,10 @@
         <v>15.58530928830405</v>
       </c>
       <c r="T19" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,13 +32469,13 @@
         <v>20.41799183435063</v>
       </c>
       <c r="I20" t="n">
-        <v>76.86216332906659</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J20" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K20" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L20" t="n">
         <v>314.6209931794741</v>
@@ -32490,10 +32490,10 @@
         <v>335.9162135168995</v>
       </c>
       <c r="P20" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q20" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R20" t="n">
         <v>125.2368294460665</v>
@@ -32554,10 +32554,10 @@
         <v>100.7820394983358</v>
       </c>
       <c r="K21" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L21" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M21" t="n">
         <v>270.2835718777613</v>
@@ -32575,16 +32575,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R21" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S21" t="n">
         <v>19.81393330279243</v>
       </c>
       <c r="T21" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H22" t="n">
-        <v>7.951190654126959</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I22" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J22" t="n">
-        <v>63.22741279871709</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K22" t="n">
         <v>103.902061922027</v>
@@ -32639,7 +32639,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M22" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N22" t="n">
         <v>136.8531618414306</v>
@@ -32654,7 +32654,7 @@
         <v>74.8859070707192</v>
       </c>
       <c r="R22" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S22" t="n">
         <v>15.58530928830405</v>
@@ -32663,7 +32663,7 @@
         <v>3.821124342985345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>20.41799183435063</v>
       </c>
       <c r="I23" t="n">
-        <v>76.86216332906659</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J23" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K23" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L23" t="n">
         <v>314.6209931794741</v>
@@ -32727,10 +32727,10 @@
         <v>335.9162135168995</v>
       </c>
       <c r="P23" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R23" t="n">
         <v>125.2368294460665</v>
@@ -32791,10 +32791,10 @@
         <v>100.7820394983358</v>
       </c>
       <c r="K24" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L24" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M24" t="n">
         <v>270.2835718777613</v>
@@ -32812,16 +32812,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S24" t="n">
         <v>19.81393330279243</v>
       </c>
       <c r="T24" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951190654126959</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I25" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J25" t="n">
-        <v>63.22741279871709</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K25" t="n">
         <v>103.902061922027</v>
@@ -32876,7 +32876,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M25" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N25" t="n">
         <v>136.8531618414306</v>
@@ -32891,7 +32891,7 @@
         <v>74.8859070707192</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S25" t="n">
         <v>15.58530928830405</v>
@@ -32900,7 +32900,7 @@
         <v>3.821124342985345</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,13 +32943,13 @@
         <v>20.41799183435063</v>
       </c>
       <c r="I26" t="n">
-        <v>76.86216332906659</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J26" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K26" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L26" t="n">
         <v>314.6209931794741</v>
@@ -32964,10 +32964,10 @@
         <v>335.9162135168995</v>
       </c>
       <c r="P26" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R26" t="n">
         <v>125.2368294460665</v>
@@ -33028,10 +33028,10 @@
         <v>100.7820394983358</v>
       </c>
       <c r="K27" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L27" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M27" t="n">
         <v>270.2835718777613</v>
@@ -33049,16 +33049,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S27" t="n">
         <v>19.81393330279243</v>
       </c>
       <c r="T27" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951190654126959</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I28" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J28" t="n">
-        <v>63.22741279871709</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K28" t="n">
         <v>103.902061922027</v>
@@ -33113,7 +33113,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M28" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N28" t="n">
         <v>136.8531618414306</v>
@@ -33128,7 +33128,7 @@
         <v>74.8859070707192</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S28" t="n">
         <v>15.58530928830405</v>
@@ -33137,7 +33137,7 @@
         <v>3.821124342985345</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>20.41799183435063</v>
       </c>
       <c r="I29" t="n">
-        <v>76.86216332906659</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J29" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K29" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L29" t="n">
         <v>314.6209931794741</v>
@@ -33201,10 +33201,10 @@
         <v>335.9162135168995</v>
       </c>
       <c r="P29" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R29" t="n">
         <v>125.2368294460665</v>
@@ -33265,10 +33265,10 @@
         <v>100.7820394983358</v>
       </c>
       <c r="K30" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L30" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M30" t="n">
         <v>270.2835718777613</v>
@@ -33286,16 +33286,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S30" t="n">
         <v>19.81393330279243</v>
       </c>
       <c r="T30" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951190654126959</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I31" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J31" t="n">
-        <v>63.22741279871709</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K31" t="n">
         <v>103.902061922027</v>
@@ -33350,7 +33350,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M31" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N31" t="n">
         <v>136.8531618414306</v>
@@ -33365,7 +33365,7 @@
         <v>74.8859070707192</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S31" t="n">
         <v>15.58530928830405</v>
@@ -33374,7 +33374,7 @@
         <v>3.821124342985345</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>20.41799183435063</v>
       </c>
       <c r="I32" t="n">
-        <v>76.86216332906659</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J32" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K32" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L32" t="n">
         <v>314.6209931794741</v>
@@ -33438,10 +33438,10 @@
         <v>335.9162135168995</v>
       </c>
       <c r="P32" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R32" t="n">
         <v>125.2368294460665</v>
@@ -33502,10 +33502,10 @@
         <v>100.7820394983358</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L33" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M33" t="n">
         <v>270.2835718777613</v>
@@ -33523,16 +33523,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S33" t="n">
         <v>19.81393330279243</v>
       </c>
       <c r="T33" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951190654126959</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I34" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J34" t="n">
-        <v>63.22741279871709</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K34" t="n">
         <v>103.902061922027</v>
@@ -33587,7 +33587,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M34" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N34" t="n">
         <v>136.8531618414306</v>
@@ -33602,7 +33602,7 @@
         <v>74.8859070707192</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S34" t="n">
         <v>15.58530928830405</v>
@@ -33611,7 +33611,7 @@
         <v>3.821124342985345</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>20.41799183435063</v>
       </c>
       <c r="I35" t="n">
-        <v>76.86216332906659</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J35" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K35" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L35" t="n">
         <v>314.6209931794741</v>
@@ -33675,10 +33675,10 @@
         <v>335.9162135168995</v>
       </c>
       <c r="P35" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R35" t="n">
         <v>125.2368294460665</v>
@@ -33739,10 +33739,10 @@
         <v>100.7820394983358</v>
       </c>
       <c r="K36" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L36" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M36" t="n">
         <v>270.2835718777613</v>
@@ -33760,16 +33760,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S36" t="n">
         <v>19.81393330279243</v>
       </c>
       <c r="T36" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07017922067104763</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943056972944425</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951190654126959</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I37" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J37" t="n">
-        <v>63.22741279871709</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K37" t="n">
         <v>103.902061922027</v>
@@ -33824,7 +33824,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M37" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N37" t="n">
         <v>136.8531618414306</v>
@@ -33839,7 +33839,7 @@
         <v>74.8859070707192</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S37" t="n">
         <v>15.58530928830405</v>
@@ -33848,7 +33848,7 @@
         <v>3.821124342985345</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04878031076151511</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34389,10 +34389,10 @@
         <v>286.6967165404043</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R44" t="n">
-        <v>125.2368294460665</v>
+        <v>125.2368294460671</v>
       </c>
       <c r="S44" t="n">
         <v>45.43146480412697</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31426078510309</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J11" t="n">
         <v>139.7929329299602</v>
@@ -35418,13 +35418,13 @@
         <v>276.3089507468511</v>
       </c>
       <c r="M11" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N11" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O11" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P11" t="n">
         <v>249.1213547301729</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.24898706220365</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17092516500244</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K12" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L12" t="n">
-        <v>338.0751398372606</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M12" t="n">
         <v>247.1867913654333</v>
@@ -35512,7 +35512,7 @@
         <v>113.4193642716995</v>
       </c>
       <c r="R12" t="n">
-        <v>149.0782578189699</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>42.59065681481522</v>
       </c>
       <c r="K13" t="n">
-        <v>82.93740746931503</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L13" t="n">
-        <v>272.8010667730138</v>
+        <v>404.5381528226918</v>
       </c>
       <c r="M13" t="n">
         <v>117.6110431853148</v>
@@ -35582,7 +35582,7 @@
         <v>518.1577182818708</v>
       </c>
       <c r="O13" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P13" t="n">
         <v>401.6967665587357</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.31426078510309</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J14" t="n">
         <v>139.7929329299602</v>
@@ -35655,13 +35655,13 @@
         <v>276.3089507468511</v>
       </c>
       <c r="M14" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N14" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O14" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P14" t="n">
         <v>249.1213547301729</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17092516500244</v>
+        <v>209.1463304284786</v>
       </c>
       <c r="K15" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L15" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M15" t="n">
         <v>247.1867913654333</v>
@@ -35746,7 +35746,7 @@
         <v>181.9266861002427</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.0890178628644</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R15" t="n">
         <v>149.0782578189699</v>
@@ -35810,22 +35810,22 @@
         <v>332.717820715802</v>
       </c>
       <c r="L16" t="n">
-        <v>491.230908743839</v>
+        <v>111.0401071366016</v>
       </c>
       <c r="M16" t="n">
-        <v>125.6479632928088</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N16" t="n">
-        <v>116.1042608658302</v>
+        <v>351.4294599766232</v>
       </c>
       <c r="O16" t="n">
-        <v>485.4243570844132</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P16" t="n">
         <v>401.6967665587357</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.31426078510309</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J17" t="n">
         <v>139.7929329299602</v>
@@ -35892,13 +35892,13 @@
         <v>276.3089507468511</v>
       </c>
       <c r="M17" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N17" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O17" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P17" t="n">
         <v>249.1213547301729</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.55473873451492</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J18" t="n">
-        <v>339.3612861146578</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K18" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L18" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M18" t="n">
         <v>247.1867913654333</v>
@@ -35980,7 +35980,7 @@
         <v>230.6289225272657</v>
       </c>
       <c r="P18" t="n">
-        <v>181.9266861002427</v>
+        <v>441.1170470498982</v>
       </c>
       <c r="Q18" t="n">
         <v>113.4193642716995</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.59065681481522</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K19" t="n">
         <v>332.717820715802</v>
       </c>
       <c r="L19" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M19" t="n">
-        <v>498.4094703340339</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N19" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O19" t="n">
-        <v>485.4243570844132</v>
+        <v>340.5587545879692</v>
       </c>
       <c r="P19" t="n">
-        <v>85.78140840387951</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.31426078510309</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J20" t="n">
         <v>139.7929329299602</v>
@@ -36126,7 +36126,7 @@
         <v>217.841661018815</v>
       </c>
       <c r="L20" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M20" t="n">
         <v>312.6452129881231</v>
@@ -36138,13 +36138,13 @@
         <v>298.5252541608754</v>
       </c>
       <c r="P20" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q20" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R20" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>44.24898706220365</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17092516500244</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K21" t="n">
         <v>149.8533239963973</v>
@@ -36208,16 +36208,16 @@
         <v>209.0997345737846</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N21" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O21" t="n">
-        <v>359.6043277907419</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P21" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q21" t="n">
         <v>113.4193642716995</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.59065681481522</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K22" t="n">
         <v>332.717820715802</v>
@@ -36287,19 +36287,19 @@
         <v>491.230908743839</v>
       </c>
       <c r="M22" t="n">
-        <v>535.3236497134176</v>
+        <v>354.2629399850356</v>
       </c>
       <c r="N22" t="n">
-        <v>482.5702365914151</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O22" t="n">
         <v>103.9068577882483</v>
       </c>
       <c r="P22" t="n">
-        <v>85.78140840387951</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.31426078510309</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J23" t="n">
         <v>139.7929329299602</v>
@@ -36363,7 +36363,7 @@
         <v>217.841661018815</v>
       </c>
       <c r="L23" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468508</v>
       </c>
       <c r="M23" t="n">
         <v>312.6452129881231</v>
@@ -36375,13 +36375,13 @@
         <v>298.5252541608754</v>
       </c>
       <c r="P23" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q23" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R23" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J24" t="n">
-        <v>339.3612861146578</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K24" t="n">
         <v>149.8533239963973</v>
@@ -36445,22 +36445,22 @@
         <v>209.0997345737846</v>
       </c>
       <c r="M24" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N24" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O24" t="n">
-        <v>230.6289225272657</v>
+        <v>466.1250351492322</v>
       </c>
       <c r="P24" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q24" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R24" t="n">
-        <v>42.55755046047921</v>
+        <v>42.55755046047922</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K25" t="n">
-        <v>82.93740746931503</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L25" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M25" t="n">
-        <v>200.6631981265542</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N25" t="n">
         <v>518.1577182818708</v>
@@ -36533,10 +36533,10 @@
         <v>485.4243570844132</v>
       </c>
       <c r="P25" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.1688669098727</v>
+        <v>50.87396984741654</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.31426078510309</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J26" t="n">
         <v>139.7929329299602</v>
@@ -36600,7 +36600,7 @@
         <v>217.841661018815</v>
       </c>
       <c r="L26" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M26" t="n">
         <v>312.6452129881231</v>
@@ -36612,13 +36612,13 @@
         <v>298.5252541608754</v>
       </c>
       <c r="P26" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q26" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R26" t="n">
-        <v>90.20417955126973</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>20.55473873451492</v>
       </c>
       <c r="J27" t="n">
-        <v>80.17092516500244</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K27" t="n">
         <v>149.8533239963973</v>
@@ -36682,22 +36682,22 @@
         <v>209.0997345737846</v>
       </c>
       <c r="M27" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N27" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O27" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P27" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.6097252213549</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R27" t="n">
-        <v>42.55755046047921</v>
+        <v>42.55755046047922</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K28" t="n">
-        <v>82.93740746931503</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L28" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M28" t="n">
-        <v>535.3236497134176</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N28" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O28" t="n">
         <v>485.4243570844132</v>
       </c>
       <c r="P28" t="n">
-        <v>298.6476422709832</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26634430593425</v>
+        <v>137.0120691086018</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.31426078510309</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J29" t="n">
         <v>139.7929329299602</v>
@@ -36837,7 +36837,7 @@
         <v>217.841661018815</v>
       </c>
       <c r="L29" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M29" t="n">
         <v>312.6452129881231</v>
@@ -36849,13 +36849,13 @@
         <v>298.5252541608754</v>
       </c>
       <c r="P29" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q29" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R29" t="n">
-        <v>90.20417955126973</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J30" t="n">
-        <v>339.3612861146578</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K30" t="n">
         <v>149.8533239963973</v>
@@ -36919,22 +36919,22 @@
         <v>209.0997345737846</v>
       </c>
       <c r="M30" t="n">
-        <v>247.1867913654333</v>
+        <v>482.6829039873998</v>
       </c>
       <c r="N30" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O30" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P30" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q30" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R30" t="n">
-        <v>42.55755046047921</v>
+        <v>42.55755046047922</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K31" t="n">
-        <v>246.0250647946548</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L31" t="n">
-        <v>491.230908743839</v>
+        <v>323.9063410037062</v>
       </c>
       <c r="M31" t="n">
-        <v>117.6110431853148</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N31" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O31" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P31" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q31" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.31426078510309</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J32" t="n">
-        <v>139.7929329299602</v>
+        <v>139.7929329299607</v>
       </c>
       <c r="K32" t="n">
         <v>217.841661018815</v>
       </c>
       <c r="L32" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M32" t="n">
         <v>312.6452129881231</v>
@@ -37086,13 +37086,13 @@
         <v>298.5252541608754</v>
       </c>
       <c r="P32" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q32" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R32" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J33" t="n">
-        <v>339.3612861146578</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K33" t="n">
         <v>149.8533239963973</v>
@@ -37156,22 +37156,22 @@
         <v>209.0997345737846</v>
       </c>
       <c r="M33" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N33" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O33" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P33" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.4193642716995</v>
+        <v>242.3947695351754</v>
       </c>
       <c r="R33" t="n">
-        <v>42.55755046047921</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,19 +37235,19 @@
         <v>491.230908743839</v>
       </c>
       <c r="M34" t="n">
-        <v>125.6479632928088</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N34" t="n">
         <v>116.1042608658302</v>
       </c>
       <c r="O34" t="n">
-        <v>485.4243570844132</v>
+        <v>340.5587545879699</v>
       </c>
       <c r="P34" t="n">
         <v>401.6967665587357</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.31426078510309</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J35" t="n">
         <v>139.7929329299602</v>
@@ -37311,7 +37311,7 @@
         <v>217.841661018815</v>
       </c>
       <c r="L35" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M35" t="n">
         <v>312.6452129881231</v>
@@ -37323,13 +37323,13 @@
         <v>298.5252541608754</v>
       </c>
       <c r="P35" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q35" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R35" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>44.24898706220365</v>
       </c>
       <c r="J36" t="n">
-        <v>80.17092516500244</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K36" t="n">
         <v>149.8533239963973</v>
@@ -37393,22 +37393,22 @@
         <v>209.0997345737846</v>
       </c>
       <c r="M36" t="n">
-        <v>482.6829039873999</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N36" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O36" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P36" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q36" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R36" t="n">
-        <v>42.55755046047921</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.59065681481522</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K37" t="n">
-        <v>82.93740746931503</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L37" t="n">
-        <v>111.0401071366017</v>
+        <v>325.8293481275201</v>
       </c>
       <c r="M37" t="n">
-        <v>535.3236497134176</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N37" t="n">
-        <v>415.1085939941182</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O37" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P37" t="n">
         <v>401.6967665587357</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>42.3142607851031</v>
       </c>
       <c r="J38" t="n">
-        <v>139.7929329299598</v>
+        <v>139.7929329299602</v>
       </c>
       <c r="K38" t="n">
         <v>217.841661018815</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.24898706220365</v>
+        <v>20.55473873451492</v>
       </c>
       <c r="J39" t="n">
         <v>80.17092516500246</v>
       </c>
       <c r="K39" t="n">
-        <v>149.8533239963973</v>
+        <v>409.0436849460526</v>
       </c>
       <c r="L39" t="n">
         <v>209.0997345737846</v>
@@ -37639,13 +37639,13 @@
         <v>230.6289225272658</v>
       </c>
       <c r="P39" t="n">
-        <v>310.9020913637186</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q39" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R39" t="n">
-        <v>149.0782578189699</v>
+        <v>42.55755046047922</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,19 +37709,19 @@
         <v>491.230908743839</v>
       </c>
       <c r="M40" t="n">
-        <v>535.3236497134177</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N40" t="n">
-        <v>403.8614318962426</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O40" t="n">
-        <v>103.9068577882483</v>
+        <v>340.5587545879699</v>
       </c>
       <c r="P40" t="n">
-        <v>85.78140840387952</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.24898706220365</v>
+        <v>20.55473873451492</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17092516500246</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K42" t="n">
         <v>149.8533239963973</v>
@@ -37876,7 +37876,7 @@
         <v>230.6289225272658</v>
       </c>
       <c r="P42" t="n">
-        <v>417.4227987222091</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q42" t="n">
         <v>113.4193642716995</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K43" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L43" t="n">
         <v>491.230908743839</v>
@@ -37949,16 +37949,16 @@
         <v>117.6110431853149</v>
       </c>
       <c r="N43" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O43" t="n">
-        <v>340.5587545879695</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P43" t="n">
-        <v>401.6967665587357</v>
+        <v>336.1694471918497</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>249.121354730173</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.1726197395232</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R44" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127064</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17092516500246</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K45" t="n">
         <v>149.8533239963973</v>
@@ -38116,10 +38116,10 @@
         <v>181.9266861002428</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.6097252213547</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R45" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.59065681481523</v>
+        <v>102.5543680779814</v>
       </c>
       <c r="K46" t="n">
         <v>82.93740746931505</v>
       </c>
       <c r="L46" t="n">
-        <v>491.230908743839</v>
+        <v>111.0401071366017</v>
       </c>
       <c r="M46" t="n">
         <v>535.3236497134177</v>
@@ -38189,13 +38189,13 @@
         <v>518.1577182818708</v>
       </c>
       <c r="O46" t="n">
-        <v>318.0997893442801</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P46" t="n">
         <v>85.78140840387952</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
